--- a/Housing copy.xlsx
+++ b/Housing copy.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dawsontam/Desktop/SF_Housing_Market/SF_Housing_Market/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{767A8FB8-3D0B-4A4B-BC47-817D17663ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{CBC434E5-923B-544E-B121-664D06A98BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{A210BBEE-2D4A-2342-8878-19BFA990F702}"/>
   </bookViews>
   <sheets>
     <sheet name="Housing copy" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">[1]Housing!$A$2:$A$546</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">[1]Housing!$B$2:$B$546</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">[1]Housing!$B$2:$B$546</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">[1]Housing!$A$2:$A$546</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">[1]Housing!$B$2:$B$546</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="99" uniqueCount="45">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="100" uniqueCount="46">
   <si>
     <t>Price Summary Statistics</t>
   </si>
@@ -180,12 +181,15 @@
   <si>
     <t>X Variable 4</t>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -318,6 +322,13 @@
       <color theme="0"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -662,9 +673,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -744,10 +756,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0%">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85%"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -775,10 +788,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0%">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85%"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65%"/>
+                  <a:lumOff val="35%"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -802,37 +816,23 @@
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
+              <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:glow rad="139700">
-                <a:schemeClr val="accent1">
-                  <a:satMod val="175%"/>
-                  <a:alpha val="14%"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="3"/>
+            <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60%"/>
-                  <a:lumOff val="40%"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
               </a:ln>
-              <a:effectLst>
-                <a:glow rad="63500">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="175%"/>
-                    <a:alpha val="25%"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
             </c:spPr>
           </c:marker>
           <c:xVal>
@@ -4152,10 +4152,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="65%"/>
-                  <a:lumOff val="35%"/>
-                  <a:alpha val="75%"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15%"/>
+                  <a:lumOff val="85%"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -4170,10 +4169,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
                     <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="75%"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65%"/>
+                        <a:lumOff val="35%"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -4183,7 +4183,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>"Area"</a:t>
+                  <a:t>"Area" (sqft)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4201,10 +4201,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
                   <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="75%"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65%"/>
+                      <a:lumOff val="35%"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -4224,8 +4225,9 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="50%"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25%"/>
+                <a:lumOff val="75%"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -4239,8 +4241,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75%"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -4266,10 +4269,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="65%"/>
-                  <a:lumOff val="35%"/>
-                  <a:alpha val="75%"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15%"/>
+                  <a:lumOff val="85%"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -4284,10 +4286,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
                     <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="75%"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65%"/>
+                        <a:lumOff val="35%"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -4315,10 +4318,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
                   <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="75%"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65%"/>
+                      <a:lumOff val="35%"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -4338,8 +4342,9 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="50%"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25%"/>
+                <a:lumOff val="75%"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -4353,8 +4358,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75%"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -4383,14 +4389,2358 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75%"/>
-        <a:lumOff val="25%"/>
-      </a:schemeClr>
+      <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="dk1">
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15%"/>
+          <a:lumOff val="85%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Parking</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65%"/>
+                  <a:lumOff val="35%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-384E-714F-84B1-0FD3AFC0E0F1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-384E-714F-84B1-0FD3AFC0E0F1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-384E-714F-84B1-0FD3AFC0E0F1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-384E-714F-84B1-0FD3AFC0E0F1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:numRef>
+              <c:f>'[1]categorical columns'!$S$2:$S$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]categorical columns'!$T$2:$T$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-384E-714F-84B1-0FD3AFC0E0F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65%"/>
+                  <a:lumOff val="35%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15%"/>
+          <a:lumOff val="85%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Furnishing</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0%"/>
+              <a:t> Status</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65%"/>
+                  <a:lumOff val="35%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-98C4-4449-8A3F-E44178881593}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-98C4-4449-8A3F-E44178881593}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-98C4-4449-8A3F-E44178881593}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'[1]categorical columns'!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>furnished</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>semi-furnished</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>unfurnished</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]categorical columns'!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>178</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-98C4-4449-8A3F-E44178881593}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65%"/>
+                  <a:lumOff val="35%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15%"/>
+          <a:lumOff val="85%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Parking</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65%"/>
+                  <a:lumOff val="35%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-EB58-A242-ABEC-3F054F8B65D7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-EB58-A242-ABEC-3F054F8B65D7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-EB58-A242-ABEC-3F054F8B65D7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-EB58-A242-ABEC-3F054F8B65D7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:numRef>
+              <c:f>'[1]categorical columns'!$S$2:$S$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]categorical columns'!$T$2:$T$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-EB58-A242-ABEC-3F054F8B65D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65%"/>
+                  <a:lumOff val="35%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15%"/>
+          <a:lumOff val="85%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Furnishing</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0%"/>
+              <a:t> Status</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65%"/>
+                  <a:lumOff val="35%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-8681-C946-A4AB-B76373894D03}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-8681-C946-A4AB-B76373894D03}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-8681-C946-A4AB-B76373894D03}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'[1]categorical columns'!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>furnished</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>semi-furnished</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>unfurnished</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]categorical columns'!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>178</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-8681-C946-A4AB-B76373894D03}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65%"/>
+                  <a:lumOff val="35%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15%"/>
+          <a:lumOff val="85%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Main</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0%"/>
+              <a:t> Road?</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65%"/>
+                  <a:lumOff val="35%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]categorical columns'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-84E4-324E-ACF8-06BC15310ED5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-84E4-324E-ACF8-06BC15310ED5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'[1]categorical columns'!$D$2:$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>yes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>no</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]categorical columns'!$E$2:$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>468</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>77</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-84E4-324E-ACF8-06BC15310ED5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65%"/>
+                  <a:lumOff val="35%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15%"/>
+          <a:lumOff val="85%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Guest</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0%"/>
+              <a:t> Room</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65%"/>
+                  <a:lumOff val="35%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-F898-624C-94F4-9756FDF59942}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-F898-624C-94F4-9756FDF59942}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'[1]categorical columns'!$G$2:$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>yes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>no</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]categorical columns'!$H$2:$H$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>448</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-F898-624C-94F4-9756FDF59942}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65%"/>
+                  <a:lumOff val="35%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15%"/>
+          <a:lumOff val="85%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Basement</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65%"/>
+                  <a:lumOff val="35%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-130D-0E4D-854C-84DF795C80D9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-130D-0E4D-854C-84DF795C80D9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'[1]categorical columns'!$J$2:$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>yes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>no</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]categorical columns'!$K$2:$K$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>354</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-130D-0E4D-854C-84DF795C80D9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65%"/>
+                  <a:lumOff val="35%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15%"/>
+          <a:lumOff val="85%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Hotwater</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0%"/>
+              <a:t> Heater</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65%"/>
+                  <a:lumOff val="35%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-8EC2-A145-93EA-13CBC67A802F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-8EC2-A145-93EA-13CBC67A802F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'[1]categorical columns'!$M$2:$M$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>yes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>no</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]categorical columns'!$N$2:$N$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>520</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-8EC2-A145-93EA-13CBC67A802F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65%"/>
+                  <a:lumOff val="35%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15%"/>
+          <a:lumOff val="85%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Air</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0%"/>
+              <a:t> Condition</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65%"/>
+                  <a:lumOff val="35%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-D373-8E49-BFBD-376DD24945C0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-D373-8E49-BFBD-376DD24945C0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'[1]categorical columns'!$P$2:$P$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>yes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>no</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]categorical columns'!$Q$2:$Q$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>373</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D373-8E49-BFBD-376DD24945C0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65%"/>
+                  <a:lumOff val="35%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
           <a:lumMod val="15%"/>
           <a:lumOff val="85%"/>
         </a:schemeClr>
@@ -4422,7 +6772,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4483,7 +6833,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4540,6 +6890,126 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+    <a:lumOff val="20%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+    <a:lumOff val="40%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+    <a:lumOff val="30%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+    <a:lumOff val="50%"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+    <a:lumOff val="20%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+    <a:lumOff val="40%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+    <a:lumOff val="30%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+    <a:lumOff val="50%"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+    <a:lumOff val="20%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+    <a:lumOff val="40%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+    <a:lumOff val="30%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+    <a:lumOff val="50%"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4659,6 +7129,246 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+    <a:lumOff val="20%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+    <a:lumOff val="40%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+    <a:lumOff val="30%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+    <a:lumOff val="50%"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+    <a:lumOff val="20%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+    <a:lumOff val="40%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+    <a:lumOff val="30%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+    <a:lumOff val="50%"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+    <a:lumOff val="20%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+    <a:lumOff val="40%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+    <a:lumOff val="30%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+    <a:lumOff val="50%"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+    <a:lumOff val="20%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+    <a:lumOff val="40%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+    <a:lumOff val="30%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+    <a:lumOff val="50%"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+    <a:lumOff val="20%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+    <a:lumOff val="40%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+    <a:lumOff val="30%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+    <a:lumOff val="50%"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+    <a:lumOff val="20%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+    <a:lumOff val="40%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+    <a:lumOff val="30%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+    <a:lumOff val="50%"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="366">
   <cs:axisTitle>
@@ -5167,6 +7877,1563 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75%"/>
+        <a:lumOff val="25%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25%"/>
+            <a:lumOff val="75%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75%"/>
+          <a:lumOff val="25%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5%"/>
+            <a:lumOff val="95%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50%"/>
+            <a:lumOff val="50%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0%"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75%"/>
+        <a:lumOff val="25%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25%"/>
+            <a:lumOff val="75%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75%"/>
+          <a:lumOff val="25%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5%"/>
+            <a:lumOff val="95%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50%"/>
+            <a:lumOff val="50%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0%"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75%"/>
+        <a:lumOff val="25%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25%"/>
+            <a:lumOff val="75%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75%"/>
+          <a:lumOff val="25%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5%"/>
+            <a:lumOff val="95%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50%"/>
+            <a:lumOff val="50%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0%"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="366">
   <cs:axisTitle>
@@ -5676,35 +9943,211 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="245">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75%"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75%"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25%"/>
+            <a:lumOff val="75%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75%"/>
+        <a:lumOff val="25%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25%"/>
+            <a:lumOff val="75%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -5715,7 +10158,78 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="15%"/>
             <a:lumOff val="85%"/>
           </a:schemeClr>
@@ -5723,6 +10237,285 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5%"/>
+            <a:lumOff val="95%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50%"/>
+            <a:lumOff val="50%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0%"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25%"/>
+            <a:lumOff val="75%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
@@ -5730,8 +10523,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="75%"/>
+        <a:lumOff val="25%"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -5741,18 +10535,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="15%"/>
-        <a:lumOff val="85%"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65%"/>
-          <a:lumOff val="35%"/>
-        </a:schemeClr>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25%"/>
+            <a:lumOff val="75%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -5760,123 +10559,77 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:miter lim="800%"/>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175%"/>
-            <a:alpha val="25%"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:miter lim="800%"/>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175%"/>
-            <a:alpha val="25%"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="22225" cap="rnd">
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="139700">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175%"/>
-            <a:alpha val="14%"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:lumMod val="60%"/>
-          <a:lumOff val="40%"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175%"/>
-            <a:alpha val="25%"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -5884,7 +10637,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -5900,144 +10653,155 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75%"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75%"/>
+          <a:lumOff val="25%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5%"/>
+            <a:lumOff val="95%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="50%"/>
             <a:lumOff val="50%"/>
           </a:schemeClr>
         </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="50%"/>
-          <a:lumOff val="50%"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75%"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50%"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50%"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65%"/>
-            <a:lumOff val="35%"/>
-            <a:alpha val="75%"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65%"/>
-            <a:lumOff val="35%"/>
-            <a:alpha val="25%"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50%"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -6047,13 +10811,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50%"/>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6065,26 +10830,27 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75%"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -6092,8 +10858,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75%"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -6103,13 +10870,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50%"/>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6121,11 +10889,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85%"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0%"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0%"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -6134,15 +10903,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="50%"/>
-          </a:schemeClr>
-        </a:solidFill>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -6151,8 +10919,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75%"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -6162,18 +10931,536 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="85%"/>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75%"/>
+        <a:lumOff val="25%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25%"/>
+            <a:lumOff val="75%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75%"/>
+          <a:lumOff val="25%"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5%"/>
+            <a:lumOff val="95%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="50%"/>
+            <a:lumOff val="50%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0%"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6185,30 +11472,2102 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75%"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50%"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75%"/>
+        <a:lumOff val="25%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25%"/>
+            <a:lumOff val="75%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75%"/>
+          <a:lumOff val="25%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5%"/>
+            <a:lumOff val="95%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50%"/>
+            <a:lumOff val="50%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0%"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75%"/>
+        <a:lumOff val="25%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25%"/>
+            <a:lumOff val="75%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75%"/>
+          <a:lumOff val="25%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5%"/>
+            <a:lumOff val="95%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50%"/>
+            <a:lumOff val="50%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0%"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75%"/>
+        <a:lumOff val="25%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25%"/>
+            <a:lumOff val="75%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75%"/>
+          <a:lumOff val="25%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5%"/>
+            <a:lumOff val="95%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50%"/>
+            <a:lumOff val="50%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0%"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75%"/>
+        <a:lumOff val="25%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25%"/>
+            <a:lumOff val="75%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75%"/>
+          <a:lumOff val="25%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5%"/>
+            <a:lumOff val="95%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50%"/>
+            <a:lumOff val="50%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0%"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -6223,10 +13582,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -6263,7 +13622,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="7442200" y="0"/>
-              <a:ext cx="6616700" cy="3873500"/>
+              <a:ext cx="5803900" cy="2870200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -6297,14 +13656,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -6340,8 +13699,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7442200" y="4064000"/>
-              <a:ext cx="6616700" cy="4064000"/>
+              <a:off x="7442200" y="3263900"/>
+              <a:ext cx="5803900" cy="3251200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -6379,10 +13738,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6409,6 +13768,353 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>170180</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8494FCC9-377F-404E-93EF-0AD8832F9D06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://purl.oclc.org/ooxml/drawingml/chart">
+          <c:chart xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>551180</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A124670E-E2CD-D044-8838-608DA4DE5F44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://purl.oclc.org/ooxml/drawingml/chart">
+          <c:chart xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>170180</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>16510</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2923E67C-8C31-7D4B-B8D6-50F0CB45F9F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://purl.oclc.org/ooxml/drawingml/chart">
+          <c:chart xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>170180</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>16510</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C123482-6B52-8A48-9270-8988310621C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://purl.oclc.org/ooxml/drawingml/chart">
+          <c:chart xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>825498</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>170178</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08915D17-17F2-B24B-874A-3E581ED963F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://purl.oclc.org/ooxml/drawingml/chart">
+          <c:chart xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>170180</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>16510</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60A5E4D2-9FC2-0947-B899-E8497C4A966D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://purl.oclc.org/ooxml/drawingml/chart">
+          <c:chart xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>825498</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>170178</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF48AF46-AF7D-8A42-889A-B8E736B8CD06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://purl.oclc.org/ooxml/drawingml/chart">
+          <c:chart xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>12698</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>182878</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4ECEB1A6-09C6-B24F-97AA-956D021EEEA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://purl.oclc.org/ooxml/drawingml/chart">
+          <c:chart xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>12698</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>182878</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DD1BC0E-C926-B64E-96C2-CDD1D6221B5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://purl.oclc.org/ooxml/drawingml/chart">
+          <c:chart xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6420,6 +14126,7 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Housing"/>
+      <sheetName val="categorical columns"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -10781,6 +18488,118 @@
           </cell>
           <cell r="B546">
             <v>3850</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>furnished</v>
+          </cell>
+          <cell r="B2">
+            <v>140</v>
+          </cell>
+          <cell r="D2" t="str">
+            <v>yes</v>
+          </cell>
+          <cell r="E2">
+            <v>468</v>
+          </cell>
+          <cell r="G2" t="str">
+            <v>yes</v>
+          </cell>
+          <cell r="H2">
+            <v>97</v>
+          </cell>
+          <cell r="J2" t="str">
+            <v>yes</v>
+          </cell>
+          <cell r="K2">
+            <v>191</v>
+          </cell>
+          <cell r="M2" t="str">
+            <v>yes</v>
+          </cell>
+          <cell r="N2">
+            <v>25</v>
+          </cell>
+          <cell r="P2" t="str">
+            <v>yes</v>
+          </cell>
+          <cell r="Q2">
+            <v>172</v>
+          </cell>
+          <cell r="S2">
+            <v>0</v>
+          </cell>
+          <cell r="T2">
+            <v>299</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>semi-furnished</v>
+          </cell>
+          <cell r="B3">
+            <v>227</v>
+          </cell>
+          <cell r="D3" t="str">
+            <v>no</v>
+          </cell>
+          <cell r="E3">
+            <v>77</v>
+          </cell>
+          <cell r="G3" t="str">
+            <v>no</v>
+          </cell>
+          <cell r="H3">
+            <v>448</v>
+          </cell>
+          <cell r="J3" t="str">
+            <v>no</v>
+          </cell>
+          <cell r="K3">
+            <v>354</v>
+          </cell>
+          <cell r="M3" t="str">
+            <v>no</v>
+          </cell>
+          <cell r="N3">
+            <v>520</v>
+          </cell>
+          <cell r="P3" t="str">
+            <v>no</v>
+          </cell>
+          <cell r="Q3">
+            <v>373</v>
+          </cell>
+          <cell r="S3">
+            <v>1</v>
+          </cell>
+          <cell r="T3">
+            <v>126</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>unfurnished</v>
+          </cell>
+          <cell r="B4">
+            <v>178</v>
+          </cell>
+          <cell r="S4">
+            <v>2</v>
+          </cell>
+          <cell r="T4">
+            <v>108</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="S5">
+            <v>3</v>
+          </cell>
+          <cell r="T5">
+            <v>12</v>
           </cell>
         </row>
       </sheetData>
@@ -11109,7 +18928,7 @@
   <dimension ref="A1:X47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K44" sqref="K44"/>
+      <selection activeCell="K59" sqref="K59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11123,10 +18942,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -11313,10 +19132,10 @@
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -11347,6 +19166,9 @@
       <c r="E20">
         <v>2.1523434000000001E-2</v>
       </c>
+      <c r="T20" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
@@ -11409,10 +19231,10 @@
       <c r="E24">
         <v>0.25247571499999999</v>
       </c>
-      <c r="P24" t="s">
+      <c r="P24" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Q24">
+      <c r="Q24" s="2">
         <v>0.73184427600000002</v>
       </c>
     </row>
@@ -11429,10 +19251,10 @@
       <c r="E25">
         <v>2.1648564640000001</v>
       </c>
-      <c r="P25" t="s">
+      <c r="P25" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Q25">
+      <c r="Q25" s="2">
         <v>0.53559604400000005</v>
       </c>
     </row>
@@ -11449,10 +19271,10 @@
       <c r="E26">
         <v>1.589263578</v>
       </c>
-      <c r="P26" t="s">
+      <c r="P26" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Q26">
+      <c r="Q26" s="2">
         <v>0.53215601499999998</v>
       </c>
     </row>
@@ -11469,10 +19291,10 @@
       <c r="E27">
         <v>3</v>
       </c>
-      <c r="P27" t="s">
+      <c r="P27" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="Q27">
+      <c r="Q27" s="2">
         <v>1279364.2690000001</v>
       </c>
     </row>
@@ -11489,10 +19311,10 @@
       <c r="E28">
         <v>1</v>
       </c>
-      <c r="P28" t="s">
+      <c r="P28" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Q28">
+      <c r="Q28" s="2">
         <v>545</v>
       </c>
     </row>
@@ -11577,7 +19399,7 @@
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="A33" s="2" t="s">
         <v>30</v>
       </c>
       <c r="P33" t="s">
@@ -11871,4 +19693,19 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A03D3406-B361-5A4B-AD12-B37401D746EC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S24" sqref="S24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Housing copy.xlsx
+++ b/Housing copy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dawsontam/Desktop/SF_Housing_Market/SF_Housing_Market/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{CBC434E5-923B-544E-B121-664D06A98BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{6D7FA430-6712-E548-AA1E-0DB570F3C65C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{A210BBEE-2D4A-2342-8878-19BFA990F702}"/>
+    <workbookView xWindow="-30240" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{A210BBEE-2D4A-2342-8878-19BFA990F702}"/>
   </bookViews>
   <sheets>
     <sheet name="Housing copy" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="100" uniqueCount="46">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="58" uniqueCount="43">
   <si>
     <t>Price Summary Statistics</t>
   </si>
@@ -92,12 +92,6 @@
     <t>Count</t>
   </si>
   <si>
-    <t>Bedrooms Summary Statistics</t>
-  </si>
-  <si>
-    <t>Bathrooms Summary Statistics</t>
-  </si>
-  <si>
     <t>Regression Output</t>
   </si>
   <si>
@@ -135,9 +129,6 @@
   </si>
   <si>
     <t>Regression</t>
-  </si>
-  <si>
-    <t>Stories Summary Statistics</t>
   </si>
   <si>
     <t>Residual</t>
@@ -13770,15 +13761,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>170180</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>10160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -13808,16 +13799,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>193040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>551180</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>10160</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13842,6 +13833,50 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>802011</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>198172</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30AC57D8-16B7-E6F8-A768-6B444E608BC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="10363200"/>
+          <a:ext cx="7418711" cy="4262172"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -18925,10 +18960,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA9A4CEE-85C7-4644-9684-3123626CD799}">
-  <dimension ref="A1:X47"/>
+  <dimension ref="A1:X41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K59" sqref="K59"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19132,165 +19167,49 @@
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="2"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="P21" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="2" t="s">
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="P23" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19">
-        <v>2.9651376150000002</v>
-      </c>
-      <c r="D19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19">
-        <v>1.286238532</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20">
-        <v>3.1615181999999999E-2</v>
-      </c>
-      <c r="D20" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20">
-        <v>2.1523434000000001E-2</v>
-      </c>
-      <c r="T20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21">
-        <v>3</v>
-      </c>
-      <c r="D21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="P21" t="s">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="P24" s="2" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22">
-        <v>3</v>
-      </c>
-      <c r="D22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23">
-        <v>0.73806386099999999</v>
-      </c>
-      <c r="D23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23">
-        <v>0.50246961599999995</v>
-      </c>
-      <c r="P23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24">
-        <v>0.54473826199999997</v>
-      </c>
-      <c r="D24" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24">
-        <v>0.25247571499999999</v>
-      </c>
-      <c r="P24" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="Q24" s="2">
         <v>0.73184427600000002</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25">
-        <v>0.72832287500000004</v>
-      </c>
-      <c r="D25" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25">
-        <v>2.1648564640000001</v>
-      </c>
       <c r="P25" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q25" s="2">
         <v>0.53559604400000005</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26">
-        <v>0.49568394100000002</v>
-      </c>
-      <c r="D26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26">
-        <v>1.589263578</v>
-      </c>
       <c r="P26" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q26" s="2">
         <v>0.53215601499999998</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27">
-        <v>5</v>
-      </c>
-      <c r="D27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
       <c r="P27" s="2" t="s">
         <v>3</v>
       </c>
@@ -19299,88 +19218,38 @@
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="D28" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
       <c r="P28" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q28" s="2">
         <v>545</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29">
-        <v>6</v>
-      </c>
-      <c r="D29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29">
-        <v>4</v>
-      </c>
-    </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30">
-        <v>1616</v>
-      </c>
-      <c r="D30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30">
-        <v>701</v>
-      </c>
       <c r="P30" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>14</v>
+      <c r="Q31" t="s">
+        <v>22</v>
       </c>
-      <c r="B31">
-        <v>545</v>
+      <c r="R31" t="s">
+        <v>23</v>
       </c>
-      <c r="D31" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31">
-        <v>545</v>
-      </c>
-      <c r="Q31" t="s">
+      <c r="S31" t="s">
         <v>24</v>
       </c>
-      <c r="R31" t="s">
+      <c r="T31" t="s">
         <v>25</v>
       </c>
-      <c r="S31" t="s">
+      <c r="U31" t="s">
         <v>26</v>
-      </c>
-      <c r="T31" t="s">
-        <v>27</v>
-      </c>
-      <c r="U31" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="P32" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q32">
         <v>4</v>
@@ -19399,11 +19268,9 @@
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="A33" s="2"/>
       <c r="P33" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="Q33">
         <v>540</v>
@@ -19417,7 +19284,7 @@
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="P34" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q34">
         <v>544</v>
@@ -19426,55 +19293,35 @@
         <v>1903210000000000</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>2</v>
-      </c>
-      <c r="B35">
-        <v>1.8055045869999999</v>
-      </c>
-    </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>3</v>
-      </c>
-      <c r="B36">
-        <v>3.7159294000000002E-2</v>
-      </c>
       <c r="Q36" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="R36" t="s">
         <v>3</v>
       </c>
       <c r="S36" t="s">
+        <v>31</v>
+      </c>
+      <c r="T36" t="s">
+        <v>32</v>
+      </c>
+      <c r="U36" t="s">
+        <v>33</v>
+      </c>
+      <c r="V36" t="s">
         <v>34</v>
       </c>
-      <c r="T36" t="s">
+      <c r="W36" t="s">
         <v>35</v>
       </c>
-      <c r="U36" t="s">
+      <c r="X36" t="s">
         <v>36</v>
-      </c>
-      <c r="V36" t="s">
-        <v>37</v>
-      </c>
-      <c r="W36" t="s">
-        <v>38</v>
-      </c>
-      <c r="X36" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37">
-        <v>2</v>
-      </c>
       <c r="P37" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q37">
         <v>-282091.2904</v>
@@ -19502,14 +19349,8 @@
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>5</v>
-      </c>
-      <c r="B38">
-        <v>2</v>
-      </c>
       <c r="P38" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Q38">
         <v>380.02442930000001</v>
@@ -19537,14 +19378,8 @@
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>6</v>
-      </c>
-      <c r="B39">
-        <v>0.86749246300000005</v>
-      </c>
       <c r="P39" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Q39">
         <v>198295.49400000001</v>
@@ -19572,14 +19407,8 @@
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>7</v>
-      </c>
-      <c r="B40">
-        <v>0.75254317299999995</v>
-      </c>
       <c r="P40" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q40">
         <v>1200180.473</v>
@@ -19607,14 +19436,8 @@
       </c>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>8</v>
-      </c>
-      <c r="B41">
-        <v>0.67940408600000002</v>
-      </c>
       <c r="P41" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Q41">
         <v>531595.00919999997</v>
@@ -19641,54 +19464,6 @@
         <v>670630.47129999998</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>9</v>
-      </c>
-      <c r="B42">
-        <v>1.08208829</v>
-      </c>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>10</v>
-      </c>
-      <c r="B43">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>11</v>
-      </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>12</v>
-      </c>
-      <c r="B45">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>13</v>
-      </c>
-      <c r="B46">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>14</v>
-      </c>
-      <c r="B47">
-        <v>545</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
